--- a/Docs/testilukuja.xlsx
+++ b/Docs/testilukuja.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="33">
   <si>
     <t>Tilastot</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>100 solmua</t>
+  </si>
+  <si>
+    <t>10 solmua</t>
+  </si>
+  <si>
+    <t>random map</t>
+  </si>
+  <si>
+    <t>200 solmua</t>
+  </si>
+  <si>
+    <t>1000 solmua</t>
+  </si>
+  <si>
+    <t>2000 solmua</t>
+  </si>
+  <si>
+    <t>5000 solmua</t>
+  </si>
+  <si>
+    <t>kartta test10.csv</t>
+  </si>
+  <si>
+    <t>kartta test20.csv</t>
   </si>
 </sst>
 </file>
@@ -142,8 +166,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,17 +264,99 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="93">
     <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlinkki" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -509,9 +697,11 @@
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -535,8 +725,11 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,8 +742,11 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -563,8 +759,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -577,8 +776,11 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -591,8 +793,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -605,8 +810,11 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -619,8 +827,11 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -633,8 +844,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -647,8 +861,11 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -661,195 +878,2068 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>957</v>
+      </c>
+      <c r="C14">
+        <v>918</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>615</v>
+      </c>
+      <c r="C15">
+        <v>555</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>933</v>
+      </c>
+      <c r="C16">
+        <v>852</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>918</v>
+      </c>
+      <c r="C17">
+        <v>570</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>661</v>
+      </c>
+      <c r="C18">
+        <v>838</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>990</v>
+      </c>
+      <c r="C19">
+        <v>841</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>780</v>
+      </c>
+      <c r="C20">
+        <v>815</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>543</v>
+      </c>
+      <c r="C21">
+        <v>1703</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>972</v>
+      </c>
+      <c r="C22">
+        <v>805</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>947</v>
+      </c>
+      <c r="C23">
+        <v>734</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B25">
         <v>1158</v>
       </c>
-      <c r="C14">
+      <c r="C25">
         <v>1027</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B26">
         <v>817</v>
       </c>
-      <c r="C15">
+      <c r="C26">
         <v>1185</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B27">
         <v>1212</v>
       </c>
-      <c r="C16">
+      <c r="C27">
         <v>528</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B28">
         <v>1142</v>
       </c>
-      <c r="C17">
+      <c r="C28">
         <v>1557</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B29">
         <v>828</v>
       </c>
-      <c r="C18">
+      <c r="C29">
         <v>1685</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B30">
         <v>763</v>
       </c>
-      <c r="C19">
+      <c r="C30">
         <v>1909</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
+      <c r="B31">
         <v>1083</v>
       </c>
-      <c r="C20">
+      <c r="C31">
         <v>825</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B21">
+      <c r="B32">
         <v>1019</v>
       </c>
-      <c r="C21">
+      <c r="C32">
         <v>646</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>13</v>
       </c>
-      <c r="B22">
+      <c r="B33">
         <v>1267</v>
       </c>
-      <c r="C22">
+      <c r="C33">
         <v>1382</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D33" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
+      <c r="B34">
         <v>906</v>
       </c>
-      <c r="C23">
+      <c r="C34">
         <v>1061</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>805</v>
+      </c>
+      <c r="C36">
+        <v>877</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>619</v>
+      </c>
+      <c r="C37">
+        <v>632</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>1045</v>
+      </c>
+      <c r="C38">
+        <v>632</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>975</v>
+      </c>
+      <c r="C39">
+        <v>643</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1004</v>
+      </c>
+      <c r="C40">
+        <v>668</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>712</v>
+      </c>
+      <c r="C41">
+        <v>657</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>830</v>
+      </c>
+      <c r="C42">
+        <v>806</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>911</v>
+      </c>
+      <c r="C43">
+        <v>966</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>706</v>
+      </c>
+      <c r="C44">
+        <v>838</v>
+      </c>
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>1031</v>
+      </c>
+      <c r="C45">
+        <v>612</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B47">
+        <v>1411</v>
+      </c>
+      <c r="C47">
+        <v>1270</v>
+      </c>
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="B48">
+        <v>1842</v>
+      </c>
+      <c r="C48">
+        <v>1400</v>
+      </c>
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="B49">
+        <v>2647</v>
+      </c>
+      <c r="C49">
+        <v>1328</v>
+      </c>
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="B50">
+        <v>1135</v>
+      </c>
+      <c r="C50">
+        <v>1880</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B51">
+        <v>1841</v>
+      </c>
+      <c r="C51">
+        <v>1513</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B52">
+        <v>2348</v>
+      </c>
+      <c r="C52">
+        <v>1130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B53">
+        <v>1633</v>
+      </c>
+      <c r="C53">
+        <v>787</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B54">
+        <v>2618</v>
+      </c>
+      <c r="C54">
+        <v>1815</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B55">
+        <v>2738</v>
+      </c>
+      <c r="C55">
+        <v>1022</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
         <v>24</v>
+      </c>
+      <c r="B56">
+        <v>2248</v>
+      </c>
+      <c r="C56">
+        <v>1628</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57">
+        <v>2344</v>
+      </c>
+      <c r="C57">
+        <v>1411</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58">
+        <v>1716</v>
+      </c>
+      <c r="C58">
+        <v>1449</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59">
+        <v>2607</v>
+      </c>
+      <c r="C59">
+        <v>1111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>2560</v>
+      </c>
+      <c r="C60">
+        <v>966</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>2775</v>
+      </c>
+      <c r="C61">
+        <v>1541</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>1208</v>
+      </c>
+      <c r="C62">
+        <v>1493</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63">
+        <v>2038</v>
+      </c>
+      <c r="C63">
+        <v>1587</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64">
+        <v>2346</v>
+      </c>
+      <c r="C64">
+        <v>1000</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65">
+        <v>2769</v>
+      </c>
+      <c r="C65">
+        <v>1507</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66">
+        <v>1612</v>
+      </c>
+      <c r="C66">
+        <v>898</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69">
+        <v>4179</v>
+      </c>
+      <c r="C69">
+        <v>4049</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>3663</v>
+      </c>
+      <c r="C70">
+        <v>3546</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71">
+        <v>4112</v>
+      </c>
+      <c r="C71">
+        <v>3442</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>4685</v>
+      </c>
+      <c r="C72">
+        <v>1836</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>4328</v>
+      </c>
+      <c r="C73">
+        <v>2044</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <v>4544</v>
+      </c>
+      <c r="C74">
+        <v>3458</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>4635</v>
+      </c>
+      <c r="C75">
+        <v>3083</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>5785</v>
+      </c>
+      <c r="C76">
+        <v>3068</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>3970</v>
+      </c>
+      <c r="C77">
+        <v>3238</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>5068</v>
+      </c>
+      <c r="C78">
+        <v>3237</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>5967</v>
+      </c>
+      <c r="C79">
+        <v>1574</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>5302</v>
+      </c>
+      <c r="C80">
+        <v>3592</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>3574</v>
+      </c>
+      <c r="C81">
+        <v>3520</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>4949</v>
+      </c>
+      <c r="C82">
+        <v>1374</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83">
+        <v>5517</v>
+      </c>
+      <c r="C83">
+        <v>1578</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>4936</v>
+      </c>
+      <c r="C84">
+        <v>1871</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85">
+        <v>4367</v>
+      </c>
+      <c r="C85">
+        <v>3422</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>27</v>
+      </c>
+      <c r="B86">
+        <v>4811</v>
+      </c>
+      <c r="C86">
+        <v>1800</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87">
+        <v>4973</v>
+      </c>
+      <c r="C87">
+        <v>1335</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88">
+        <v>1642</v>
+      </c>
+      <c r="C88">
+        <v>3514</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90">
+        <v>44425</v>
+      </c>
+      <c r="C90">
+        <v>10215</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>50141</v>
+      </c>
+      <c r="C91">
+        <v>8625</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>51648</v>
+      </c>
+      <c r="C92">
+        <v>5683</v>
+      </c>
+      <c r="D92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>40283</v>
+      </c>
+      <c r="C93">
+        <v>16415</v>
+      </c>
+      <c r="D93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>40165</v>
+      </c>
+      <c r="C94">
+        <v>15840</v>
+      </c>
+      <c r="D94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>3106</v>
+      </c>
+      <c r="C95">
+        <v>3295</v>
+      </c>
+      <c r="D95" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>32302</v>
+      </c>
+      <c r="C96">
+        <v>23263</v>
+      </c>
+      <c r="D96" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97">
+        <v>55681</v>
+      </c>
+      <c r="C97">
+        <v>14318</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98">
+        <v>29755</v>
+      </c>
+      <c r="C98">
+        <v>5758</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99">
+        <v>50888</v>
+      </c>
+      <c r="C99">
+        <v>23228</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100">
+        <v>42636</v>
+      </c>
+      <c r="C100">
+        <v>14580</v>
+      </c>
+      <c r="D100" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101">
+        <v>53513</v>
+      </c>
+      <c r="C101">
+        <v>6813</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102">
+        <v>47055</v>
+      </c>
+      <c r="C102">
+        <v>24328</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103">
+        <v>40783</v>
+      </c>
+      <c r="C103">
+        <v>27089</v>
+      </c>
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104">
+        <v>52801</v>
+      </c>
+      <c r="C104">
+        <v>8359</v>
+      </c>
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105">
+        <v>25774</v>
+      </c>
+      <c r="C105">
+        <v>21955</v>
+      </c>
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106">
+        <v>30613</v>
+      </c>
+      <c r="C106">
+        <v>22753</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>45886</v>
+      </c>
+      <c r="C107">
+        <v>20739</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108">
+        <v>56790</v>
+      </c>
+      <c r="C108">
+        <v>31640</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109">
+        <v>37864</v>
+      </c>
+      <c r="C109">
+        <v>8350</v>
+      </c>
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110">
+        <v>44794</v>
+      </c>
+      <c r="C110">
+        <v>10046</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111">
+        <v>38623</v>
+      </c>
+      <c r="C111">
+        <v>27114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112">
+        <v>55697</v>
+      </c>
+      <c r="C112">
+        <v>15999</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113">
+        <v>44688</v>
+      </c>
+      <c r="C113">
+        <v>21911</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114">
+        <v>46543</v>
+      </c>
+      <c r="C114">
+        <v>20043</v>
+      </c>
+      <c r="D114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115">
+        <v>6459</v>
+      </c>
+      <c r="C115">
+        <v>847</v>
+      </c>
+      <c r="D115" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116">
+        <v>42649</v>
+      </c>
+      <c r="C116">
+        <v>1020</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117">
+        <v>45181</v>
+      </c>
+      <c r="C117">
+        <v>18201</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118">
+        <v>29520</v>
+      </c>
+      <c r="C118">
+        <v>1888</v>
+      </c>
+      <c r="D118" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119">
+        <v>53252</v>
+      </c>
+      <c r="C119">
+        <v>12937</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121">
+        <v>21615</v>
+      </c>
+      <c r="C121">
+        <v>8112</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>29</v>
+      </c>
+      <c r="B122">
+        <v>38036</v>
+      </c>
+      <c r="C122">
+        <v>3314</v>
+      </c>
+      <c r="D122" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123">
+        <v>46703</v>
+      </c>
+      <c r="C123">
+        <v>7295</v>
+      </c>
+      <c r="D123" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124">
+        <v>31378</v>
+      </c>
+      <c r="C124">
+        <v>2032</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125">
+        <v>2686</v>
+      </c>
+      <c r="C125">
+        <v>19373</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>29</v>
+      </c>
+      <c r="B126">
+        <v>2825</v>
+      </c>
+      <c r="C126">
+        <v>4536</v>
+      </c>
+      <c r="D126" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127">
+        <v>19164</v>
+      </c>
+      <c r="C127">
+        <v>36531</v>
+      </c>
+      <c r="D127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>29</v>
+      </c>
+      <c r="B128">
+        <v>41407</v>
+      </c>
+      <c r="C128">
+        <v>20313</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129">
+        <v>1668</v>
+      </c>
+      <c r="C129">
+        <v>38459</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130">
+        <v>14975</v>
+      </c>
+      <c r="C130">
+        <v>22546</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>29</v>
+      </c>
+      <c r="B131">
+        <v>7103</v>
+      </c>
+      <c r="C131">
+        <v>16221</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132">
+        <v>10366</v>
+      </c>
+      <c r="C132">
+        <v>10459</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="B133">
+        <v>40864</v>
+      </c>
+      <c r="C133">
+        <v>2958</v>
+      </c>
+      <c r="D133" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>29</v>
+      </c>
+      <c r="B134">
+        <v>10435</v>
+      </c>
+      <c r="C134">
+        <v>1260</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135">
+        <v>21078</v>
+      </c>
+      <c r="C135">
+        <v>14238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>29</v>
+      </c>
+      <c r="B136">
+        <v>35483</v>
+      </c>
+      <c r="C136">
+        <v>4283</v>
+      </c>
+      <c r="D136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>29</v>
+      </c>
+      <c r="B137">
+        <v>2105</v>
+      </c>
+      <c r="C137">
+        <v>13597</v>
+      </c>
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138">
+        <v>22455</v>
+      </c>
+      <c r="C138">
+        <v>2742</v>
+      </c>
+      <c r="D138" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>29</v>
+      </c>
+      <c r="B139">
+        <v>12322</v>
+      </c>
+      <c r="C139">
+        <v>10905</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>29</v>
+      </c>
+      <c r="B140">
+        <v>22586</v>
+      </c>
+      <c r="C140">
+        <v>39052</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>29</v>
+      </c>
+      <c r="B141">
+        <v>42270</v>
+      </c>
+      <c r="C141">
+        <v>8448</v>
+      </c>
+      <c r="D141" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B142">
+        <v>2928</v>
+      </c>
+      <c r="C142">
+        <v>42224</v>
+      </c>
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143">
+        <v>47155</v>
+      </c>
+      <c r="C143">
+        <v>2318</v>
+      </c>
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>29</v>
+      </c>
+      <c r="B144">
+        <v>31707</v>
+      </c>
+      <c r="C144">
+        <v>58522</v>
+      </c>
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145">
+        <v>3638</v>
+      </c>
+      <c r="C145">
+        <v>1622</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146">
+        <v>30039</v>
+      </c>
+      <c r="C146">
+        <v>2303</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147">
+        <v>15890</v>
+      </c>
+      <c r="C147">
+        <v>31096</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148">
+        <v>5934</v>
+      </c>
+      <c r="C148">
+        <v>23461</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149">
+        <v>27713</v>
+      </c>
+      <c r="C149">
+        <v>33561</v>
+      </c>
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150">
+        <v>6362</v>
+      </c>
+      <c r="C150">
+        <v>10232</v>
+      </c>
+      <c r="D150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152">
+        <v>1187332</v>
+      </c>
+      <c r="C152">
+        <v>13264</v>
+      </c>
+      <c r="D152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153">
+        <v>1163199</v>
+      </c>
+      <c r="C153">
+        <v>18351</v>
+      </c>
+      <c r="D153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154">
+        <v>544306</v>
+      </c>
+      <c r="C154">
+        <v>138346</v>
+      </c>
+      <c r="D154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155">
+        <v>1145615</v>
+      </c>
+      <c r="C155">
+        <v>320730</v>
+      </c>
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156">
+        <v>1213415</v>
+      </c>
+      <c r="C156">
+        <v>22545</v>
+      </c>
+      <c r="D156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>30</v>
+      </c>
+      <c r="B157">
+        <v>1176957</v>
+      </c>
+      <c r="C157">
+        <v>232721</v>
+      </c>
+      <c r="D157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158">
+        <v>1110489</v>
+      </c>
+      <c r="C158">
+        <v>66335</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>30</v>
+      </c>
+      <c r="B159">
+        <v>243652</v>
+      </c>
+      <c r="C159">
+        <v>71618</v>
+      </c>
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>30</v>
+      </c>
+      <c r="B160">
+        <v>1222086</v>
+      </c>
+      <c r="C160">
+        <v>7196</v>
+      </c>
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>30</v>
+      </c>
+      <c r="B161">
+        <v>1083246</v>
+      </c>
+      <c r="C161">
+        <v>169843</v>
+      </c>
+      <c r="D161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162">
+        <v>1142554</v>
+      </c>
+      <c r="C162">
+        <v>274277</v>
+      </c>
+      <c r="D162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163">
+        <v>1181929</v>
+      </c>
+      <c r="C163">
+        <v>20546</v>
+      </c>
+      <c r="D163" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164">
+        <v>1277226</v>
+      </c>
+      <c r="C164">
+        <v>25533</v>
+      </c>
+      <c r="D164" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165">
+        <v>1140665</v>
+      </c>
+      <c r="C165">
+        <v>3738</v>
+      </c>
+      <c r="D165" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166">
+        <v>1142281</v>
+      </c>
+      <c r="C166">
+        <v>41416</v>
+      </c>
+      <c r="D166" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
